--- a/techdata_ex.xlsx
+++ b/techdata_ex.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="subtechs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,16 +17,17 @@
     <sheet name="techdata_ex_5c" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="techdata_ex_5b" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="techdata_ex_5" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="techdata_test_small" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="techdata_test" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="techdata_ex_4" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Tech Sonia" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="techdata_ex_3d" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="techdata_ex_3c" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="techdata_ex_3bb" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="techdata_ex_2" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="techdata_ex" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Used attr and functions" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="techdata_demo" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="techdata_test_small" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="techdata_test" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="techdata_ex_4" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Tech Sonia" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="techdata_ex_3d" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="techdata_ex_3c" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="techdata_ex_3bb" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="techdata_ex_2" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="techdata_ex" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Used attr and functions" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="551">
   <si>
     <t>X_A</t>
   </si>
@@ -1197,15 +1198,27 @@
     <t>sludge -&gt; </t>
   </si>
   <si>
+    <t>greywater -&gt; sludge, effluent</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
+    <t>omskil</t>
+  </si>
+  <si>
     <t>bod</t>
   </si>
   <si>
     <t>dtriangle</t>
   </si>
   <si>
+    <t>lower=-10, upper=Inf</t>
+  </si>
+  <si>
+    <t>lower=5, upper=Inf</t>
+  </si>
+  <si>
     <t>a=40,  b=1900,   c=600</t>
   </si>
   <si>
@@ -1215,10 +1228,7 @@
     <t>a=10, b=400, c=40</t>
   </si>
   <si>
-    <t>omskil</t>
-  </si>
-  <si>
-    <t>lower=5, upper=Inf</t>
+    <t>lower=10, upper=Inf</t>
   </si>
   <si>
     <t>a = 8, b = 10, c = 5000, d=5000</t>
@@ -1231,15 +1241,6 @@
   </si>
   <si>
     <t>c(no=0.5,yes=1)</t>
-  </si>
-  <si>
-    <t>greywater -&gt; sludge, effluent</t>
-  </si>
-  <si>
-    <t>lower=-10, upper=Inf</t>
-  </si>
-  <si>
-    <t>lower=10, upper=Inf</t>
   </si>
   <si>
     <t>single.vip</t>
@@ -2356,16 +2357,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="M6:M8 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,38 +2472,65 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9948979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8724489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6275510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.484693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6275510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>380</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,15 +2541,36 @@
         <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2530,196 +2579,295 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="J3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>381</v>
       </c>
+      <c r="M3" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>382</v>
       </c>
+      <c r="M4" s="0" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="M5" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="H9" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="F70" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="I12" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="G13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="F71" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="E81" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>342</v>
       </c>
     </row>
@@ -2739,65 +2887,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C87" activeCellId="1" sqref="M6:M8 C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7551020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.3214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.9183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.219387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3163265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.1785714285714"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.015306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="L1" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,36 +2929,15 @@
         <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="0" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2846,286 +2946,196 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="E79" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="K8" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="E81" s="0" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3145,784 +3155,394 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A82" activeCellId="1" sqref="M6:M8 A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="2" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="3" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1006" min="13" style="2" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1008" min="1007" style="48" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="1009" style="0" width="12.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.015306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8826530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.4030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>367</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="D1" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>403</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="F2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="K2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="L2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="M2" s="0" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="I3" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="47" t="s">
+      <c r="J3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>408</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>410</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>412</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>413</v>
-      </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
+      <c r="B7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
+      <c r="B8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
+      <c r="A9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="F10" s="0"/>
-      <c r="G10" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
+      <c r="B10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="0"/>
-      <c r="G11" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
+      <c r="B11" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="0"/>
-      <c r="G12" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="0"/>
-      <c r="G13" s="50" t="s">
-        <v>424</v>
-      </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
+      <c r="C13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="0"/>
-      <c r="G14" s="50" t="s">
-        <v>425</v>
-      </c>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
+      <c r="C14" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
+      <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
+      <c r="G16" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="H37" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="J37" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="K37" s="47" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="H38" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="J38" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="K38" s="47" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="J39" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K39" s="47" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="J40" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="K40" s="47" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="H41" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="47" t="s">
+      <c r="G17" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="J42" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="K42" s="47" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3941,17 +3561,787 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M6:M8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="2" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="3" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="2" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1006" min="13" style="2" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1008" min="1007" style="48" width="12.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1009" style="0" width="12.4030612244898"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="I37" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3967,29 +4357,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:112"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M6:M8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="26" min="22" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1016" min="28" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4030612244898"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:112"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q16" activeCellId="1" sqref="M6:M8 Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="22" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1016" min="28" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="15.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,7 +8116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7708,26 +8124,26 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="topLeft" activeCell="U1" activeCellId="1" sqref="M6:M8 U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="26" min="22" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1016" min="28" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="22" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1016" min="28" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="15.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11370,7 +11786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -11378,30 +11794,30 @@
   <dimension ref="1:76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="M6:M8 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="24" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1022" min="29" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="48" width="23.234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="24" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1022" min="29" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="48" width="23.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11915,7 +12331,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>119</v>
@@ -12703,13 +13119,13 @@
       <c r="N34" s="64"/>
       <c r="O34" s="69"/>
       <c r="P34" s="40" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="70"/>
       <c r="T34" s="40" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
@@ -12725,13 +13141,13 @@
       <c r="N35" s="71"/>
       <c r="O35" s="73"/>
       <c r="P35" s="13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="S35" s="74"/>
       <c r="T35" s="13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
@@ -17835,7 +18251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17843,30 +18259,30 @@
   <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+      <selection pane="topLeft" activeCell="O3" activeCellId="1" sqref="M6:M8 O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="24" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1022" min="29" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="19.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="24" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1022" min="29" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="20.5612244897959"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18214,13 +18630,13 @@
       <c r="N6" s="63"/>
       <c r="O6" s="66"/>
       <c r="P6" s="65" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
       <c r="S6" s="63"/>
       <c r="T6" s="65" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="U6" s="66"/>
       <c r="V6" s="66"/>
@@ -24740,7 +25156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -24748,26 +25164,26 @@
   <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="M6:M8 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="2" width="23.234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="2" width="23.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31526,7 +31942,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="M6:M8 G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.8367346938776"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -31534,12 +32052,12 @@
   <dimension ref="1:9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="M6:M8 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="48" width="23.234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="48" width="23.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32572,7 +33090,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="93" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -37712,7 +38230,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="95" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -39782,108 +40300,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -39891,17 +40307,17 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="M6:M8 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39976,16 +40392,16 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="M6:M8 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.20918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.06632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.33673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.18367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40076,16 +40492,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="M6:M8 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.20918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.19897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.06632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.18367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40197,26 +40613,26 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="M6:M8 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="26" min="22" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1016" min="28" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="22" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1016" min="28" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="15.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43935,28 +44351,28 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z12" activeCellId="0" sqref="Z12"/>
+      <selection pane="topLeft" activeCell="Z12" activeCellId="1" sqref="M6:M8 Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="25" min="22" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="47" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1017" min="29" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="22" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="47" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1017" min="29" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="15.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47608,32 +48024,32 @@
   <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="M6:M8 P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.6989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.5969387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="54.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="53.6734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.5816326530612"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.9948979591837"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="111.989795918367"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="119.316326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="105.076530612245"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="46.6275510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="21.6989795918367"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="28.734693877551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.9744897959184"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.8418367346939"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="20.1428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.3979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1887755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.7244897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="56.1989795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="55.3571428571429"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.8469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.9744897959184"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="115.510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="123.112244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="108.459183673469"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="48.0408163265306"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.3979591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.1428571428571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="29.5816326530612"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.4081632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49223,26 +49639,26 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M6:M8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="26" min="22" style="2" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1016" min="28" style="2" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="22" style="2" width="38.5969387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1016" min="28" style="2" width="23.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="15.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/techdata_ex.xlsx
+++ b/techdata_ex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="subtechs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,9 +17,9 @@
     <sheet name="techdata_ex_5c" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="techdata_ex_5b" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="techdata_ex_5" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="techdata_demo" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="techdata_test_small" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="techdata_test" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="techdata_test_small" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="techdata_test" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="techdata_demo" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="techdata_ex_4" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Tech Sonia" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="techdata_ex_3d" sheetId="15" state="visible" r:id="rId16"/>
@@ -1198,49 +1198,52 @@
     <t>sludge -&gt; </t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>bod</t>
+  </si>
+  <si>
+    <t>dtriangle</t>
+  </si>
+  <si>
+    <t>a=40,  b=1900,   c=600</t>
+  </si>
+  <si>
+    <t>a=10, b=400, c=100</t>
+  </si>
+  <si>
+    <t>a=10, b=400, c=40</t>
+  </si>
+  <si>
+    <t>omskil</t>
+  </si>
+  <si>
+    <t>lower=5, upper=Inf</t>
+  </si>
+  <si>
+    <t>a = 8, b = 10, c = 5000, d=5000</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>pcat</t>
+  </si>
+  <si>
+    <t>c(no=0.5,yes=1)</t>
+  </si>
+  <si>
     <t>greywater -&gt; sludge, effluent</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>omskil</t>
-  </si>
-  <si>
-    <t>bod</t>
-  </si>
-  <si>
-    <t>dtriangle</t>
-  </si>
-  <si>
     <t>lower=-10, upper=Inf</t>
   </si>
   <si>
-    <t>lower=5, upper=Inf</t>
-  </si>
-  <si>
-    <t>a=40,  b=1900,   c=600</t>
-  </si>
-  <si>
-    <t>a=10, b=400, c=100</t>
-  </si>
-  <si>
-    <t>a=10, b=400, c=40</t>
-  </si>
-  <si>
     <t>lower=10, upper=Inf</t>
   </si>
   <si>
-    <t>a = 8, b = 10, c = 5000, d=5000</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>pcat</t>
-  </si>
-  <si>
-    <t>c(no=0.5,yes=1)</t>
+    <t>urine.storagetank</t>
   </si>
   <si>
     <t>single.vip</t>
@@ -1337,9 +1340,6 @@
   </si>
   <si>
     <t>a=0, b=15, c=Inf, d=Inf</t>
-  </si>
-  <si>
-    <t>urine.storagetank</t>
   </si>
   <si>
     <t>dehydration.vaults</t>
@@ -2357,7 +2357,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="M6:M8 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="G15:G17 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2472,10 +2472,684 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C87" activeCellId="1" sqref="G15:G17 C87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.015306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.6632653061225"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6:M8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.015306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8826530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.4030612244898"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2506,7 +3180,7 @@
         <v>348</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>350</v>
@@ -2587,7 +3261,7 @@
       <c r="D3" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -2628,7 +3302,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="0" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>372</v>
@@ -2645,10 +3319,10 @@
         <v>333</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>333</v>
@@ -2657,16 +3331,16 @@
         <v>333</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>333</v>
@@ -2695,16 +3369,16 @@
         <v>334</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>334</v>
@@ -2718,7 +3392,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>343</v>
@@ -2727,25 +3401,25 @@
         <v>341</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>337</v>
@@ -2759,19 +3433,19 @@
         <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>333</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,10 +3470,10 @@
         <v>341</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>342</v>
@@ -2813,7 +3487,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>333</v>
@@ -2838,7 +3512,7 @@
         <v>343</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>336</v>
@@ -2849,15 +3523,15 @@
         <v>37</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>334</v>
@@ -2865,681 +3539,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F81"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C87" activeCellId="1" sqref="M6:M8 C87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.7244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.6632653061225"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C75" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="1" sqref="M6:M8 A82"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.7448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.015306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7755102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8826530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.4030612244898"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="0" t="s">
-        <v>397</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>342</v>
@@ -3564,7 +3564,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M6:M8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G15:G17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3588,19 +3588,19 @@
         <v>347</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1" s="49" t="s">
         <v>367</v>
@@ -3612,7 +3612,7 @@
         <v>369</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,10 +3632,10 @@
         <v>71</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>73</v>
@@ -3667,10 +3667,10 @@
         <v>83</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>112</v>
@@ -3679,7 +3679,7 @@
         <v>373</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K3" s="47" t="s">
         <v>372</v>
@@ -3694,10 +3694,10 @@
         <v>98</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
@@ -3713,10 +3713,10 @@
         <v>136</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
@@ -3732,10 +3732,10 @@
         <v>107</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
@@ -3751,10 +3751,10 @@
         <v>110</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
@@ -3770,10 +3770,10 @@
         <v>141</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -3789,10 +3789,10 @@
         <v>119</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
@@ -3805,11 +3805,11 @@
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="49" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="50" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="50" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="50" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="50" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="50" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -3892,7 +3892,7 @@
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="50" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -3907,7 +3907,7 @@
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="50" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
@@ -3922,7 +3922,7 @@
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="50" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -4236,7 +4236,7 @@
         <v>336</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H39" s="49" t="s">
         <v>336</v>
@@ -4360,7 +4360,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M6:M8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G15:G17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4386,7 +4386,7 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="1" sqref="M6:M8 Q16"/>
+      <selection pane="topLeft" activeCell="Q16" activeCellId="1" sqref="G15:G17 Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8124,7 +8124,7 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="1" sqref="M6:M8 U1"/>
+      <selection pane="topLeft" activeCell="U1" activeCellId="1" sqref="G15:G17 U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8157,16 +8157,16 @@
         <v>348</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>431</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>353</v>
@@ -8697,10 +8697,10 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="K10" s="19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>137</v>
@@ -11794,7 +11794,7 @@
   <dimension ref="1:76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="M6:M8 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="G15:G17 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11831,16 +11831,16 @@
         <v>348</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>431</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>353</v>
@@ -11849,7 +11849,7 @@
         <v>354</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>357</v>
@@ -11861,7 +11861,7 @@
         <v>432</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>433</v>
@@ -11870,7 +11870,7 @@
         <v>434</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S1" s="51" t="s">
         <v>435</v>
@@ -11942,19 +11942,19 @@
         <v>71</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>439</v>
@@ -12029,7 +12029,7 @@
         <v>86</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>441</v>
@@ -12038,10 +12038,10 @@
         <v>442</v>
       </c>
       <c r="R3" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="S3" s="54" t="s">
         <v>406</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>405</v>
       </c>
       <c r="T3" s="13" t="s">
         <v>441</v>
@@ -12050,7 +12050,7 @@
         <v>442</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W3" s="14" t="s">
         <v>91</v>
@@ -12062,7 +12062,7 @@
         <v>112</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA3" s="13" t="s">
         <v>96</v>
@@ -12093,7 +12093,7 @@
         <v>77</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P4" s="40" t="s">
         <v>445</v>
@@ -12102,10 +12102,10 @@
         <v>446</v>
       </c>
       <c r="R4" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="S4" s="55" t="s">
         <v>409</v>
-      </c>
-      <c r="S4" s="55" t="s">
-        <v>408</v>
       </c>
       <c r="T4" s="40" t="s">
         <v>445</v>
@@ -12114,7 +12114,7 @@
         <v>446</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="40" t="s">
@@ -12146,7 +12146,7 @@
         <v>98</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>447</v>
@@ -12155,10 +12155,10 @@
         <v>448</v>
       </c>
       <c r="R5" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="S5" s="54" t="s">
         <v>411</v>
-      </c>
-      <c r="S5" s="54" t="s">
-        <v>410</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>447</v>
@@ -12167,7 +12167,7 @@
         <v>448</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="W5" s="14"/>
       <c r="X5" s="13" t="s">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="N6" s="58"/>
       <c r="O6" s="36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>450</v>
@@ -12204,10 +12204,10 @@
         <v>451</v>
       </c>
       <c r="R6" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="S6" s="55" t="s">
         <v>413</v>
-      </c>
-      <c r="S6" s="55" t="s">
-        <v>412</v>
       </c>
       <c r="T6" s="40" t="s">
         <v>450</v>
@@ -12216,7 +12216,7 @@
         <v>451</v>
       </c>
       <c r="V6" s="36" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="W6" s="35"/>
       <c r="AB6" s="58"/>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="N7" s="60"/>
       <c r="O7" s="61" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>453</v>
@@ -12248,10 +12248,10 @@
         <v>454</v>
       </c>
       <c r="R7" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="S7" s="62" t="s">
         <v>415</v>
-      </c>
-      <c r="S7" s="62" t="s">
-        <v>414</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>453</v>
@@ -12260,7 +12260,7 @@
         <v>454</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="W7" s="14"/>
       <c r="X7" s="13"/>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="N8" s="37"/>
       <c r="O8" s="36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>455</v>
@@ -12298,10 +12298,10 @@
         <v>456</v>
       </c>
       <c r="R8" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="S8" s="55" t="s">
         <v>417</v>
-      </c>
-      <c r="S8" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="T8" s="40" t="s">
         <v>455</v>
@@ -12310,7 +12310,7 @@
         <v>456</v>
       </c>
       <c r="V8" s="36" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W8" s="35"/>
       <c r="X8" s="36"/>
@@ -12331,7 +12331,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>119</v>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>457</v>
@@ -12353,10 +12353,10 @@
         <v>458</v>
       </c>
       <c r="R9" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="S9" s="54" t="s">
         <v>419</v>
-      </c>
-      <c r="S9" s="54" t="s">
-        <v>418</v>
       </c>
       <c r="T9" s="13" t="s">
         <v>457</v>
@@ -12365,7 +12365,7 @@
         <v>458</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W9" s="14"/>
       <c r="X9" s="16"/>
@@ -12385,7 +12385,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="34"/>
       <c r="K10" s="35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L10" s="36" t="s">
         <v>137</v>
@@ -12400,7 +12400,7 @@
         <v>460</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="S10" s="55"/>
       <c r="T10" s="40" t="s">
@@ -12410,7 +12410,7 @@
         <v>460</v>
       </c>
       <c r="V10" s="36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W10" s="35"/>
       <c r="X10" s="36"/>
@@ -12445,7 +12445,7 @@
         <v>462</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S11" s="54"/>
       <c r="T11" s="13" t="s">
@@ -12455,7 +12455,7 @@
         <v>462</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W11" s="14"/>
       <c r="X11" s="16"/>
@@ -12492,7 +12492,7 @@
         <v>464</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S12" s="55"/>
       <c r="T12" s="40" t="s">
@@ -12502,7 +12502,7 @@
         <v>464</v>
       </c>
       <c r="V12" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W12" s="35"/>
       <c r="X12" s="36"/>
@@ -12537,7 +12537,7 @@
         <v>466</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S13" s="54"/>
       <c r="T13" s="13" t="s">
@@ -12547,7 +12547,7 @@
         <v>466</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="W13" s="14"/>
       <c r="X13" s="16"/>
@@ -12575,7 +12575,7 @@
         <v>468</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S14" s="55"/>
       <c r="T14" s="40" t="s">
@@ -12585,7 +12585,7 @@
         <v>468</v>
       </c>
       <c r="V14" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="W14" s="35"/>
       <c r="AB14" s="37"/>
@@ -12608,7 +12608,7 @@
         <v>470</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S15" s="54"/>
       <c r="T15" s="13" t="s">
@@ -12618,7 +12618,7 @@
         <v>470</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W15" s="14"/>
       <c r="AB15" s="17"/>
@@ -12642,7 +12642,7 @@
         <v>472</v>
       </c>
       <c r="R16" s="36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="40" t="s">
@@ -12652,7 +12652,7 @@
         <v>472</v>
       </c>
       <c r="V16" s="36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W16" s="35"/>
       <c r="AB16" s="37"/>
@@ -12675,7 +12675,7 @@
         <v>474</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="S17" s="67"/>
       <c r="T17" s="13" t="s">
@@ -12685,7 +12685,7 @@
         <v>474</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W17" s="63"/>
       <c r="AB17" s="63"/>
@@ -13119,13 +13119,13 @@
       <c r="N34" s="64"/>
       <c r="O34" s="69"/>
       <c r="P34" s="40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="70"/>
       <c r="T34" s="40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
@@ -13141,13 +13141,13 @@
       <c r="N35" s="71"/>
       <c r="O35" s="73"/>
       <c r="P35" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="S35" s="74"/>
       <c r="T35" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="N39" s="71"/>
       <c r="O39" s="73" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>336</v>
@@ -13374,7 +13374,7 @@
       <c r="Q39" s="16"/>
       <c r="R39" s="73"/>
       <c r="S39" s="74" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="T39" s="13" t="s">
         <v>336</v>
@@ -18259,7 +18259,7 @@
   <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="1" sqref="M6:M8 O3"/>
+      <selection pane="topLeft" activeCell="O3" activeCellId="1" sqref="G15:G17 O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -18296,16 +18296,16 @@
         <v>348</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>431</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>353</v>
@@ -18314,7 +18314,7 @@
         <v>354</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>357</v>
@@ -18326,7 +18326,7 @@
         <v>432</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>433</v>
@@ -18335,7 +18335,7 @@
         <v>434</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S1" s="51" t="s">
         <v>435</v>
@@ -18410,16 +18410,16 @@
         <v>432</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>439</v>
@@ -18630,13 +18630,13 @@
       <c r="N6" s="63"/>
       <c r="O6" s="66"/>
       <c r="P6" s="65" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
       <c r="S6" s="63"/>
       <c r="T6" s="65" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U6" s="66"/>
       <c r="V6" s="66"/>
@@ -21857,7 +21857,7 @@
       </c>
       <c r="N10" s="64"/>
       <c r="O10" s="69" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P10" s="68" t="s">
         <v>336</v>
@@ -21865,7 +21865,7 @@
       <c r="Q10" s="69"/>
       <c r="R10" s="69"/>
       <c r="S10" s="64" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="T10" s="68" t="s">
         <v>336</v>
@@ -25164,7 +25164,7 @@
   <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="M6:M8 C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="G15:G17 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -25197,19 +25197,19 @@
         <v>348</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>431</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>354</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>357</v>
@@ -25218,7 +25218,7 @@
         <v>536</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>433</v>
@@ -25281,13 +25281,13 @@
         <v>71</v>
       </c>
       <c r="K2" s="86" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M2" s="85" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N2" s="86" t="s">
         <v>439</v>
@@ -28669,14 +28669,14 @@
       </c>
       <c r="K10" s="86"/>
       <c r="L10" s="90" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M10" s="90" t="s">
         <v>336</v>
       </c>
       <c r="N10" s="86"/>
       <c r="O10" s="90" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P10" s="90" t="s">
         <v>336</v>
@@ -31950,7 +31950,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="M6:M8 G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="G15:G17 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -32052,7 +32052,7 @@
   <dimension ref="1:9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="M6:M8 A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="G15:G17 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="93" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -38230,7 +38230,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="95" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -40308,7 +40308,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="M6:M8 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="G15:G17 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -40392,7 +40392,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="M6:M8 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="G15:G17 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -40492,7 +40492,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="M6:M8 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="G15:G17 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -40613,7 +40613,7 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="M6:M8 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="G15:G17 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -44351,7 +44351,7 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z12" activeCellId="1" sqref="M6:M8 Z12"/>
+      <selection pane="topLeft" activeCell="Z12" activeCellId="1" sqref="G15:G17 Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -48024,7 +48024,7 @@
   <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="M6:M8 P20"/>
+      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="G15:G17 P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -49639,7 +49639,7 @@
   <dimension ref="1:112"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M6:M8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G15:G17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
